--- a/biology/Zoologie/Gobemouche_fiscal/Gobemouche_fiscal.xlsx
+++ b/biology/Zoologie/Gobemouche_fiscal/Gobemouche_fiscal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melaenornis silens
 Le Gobemouche fiscal (Melaenornis silens, anciennement Sigelus silens) est une espèce de passereaux de la famille des Muscicapidae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 17 à 20 cm de longueur. Le mâle adulte est noir au-dessus et blanc dessous avec des taches alaires blanches et les côtés de la queue blancs. La femelle est brune et non noire sur le dessus. Le jeune ressemble à la femelle mais en plus terne et avec des taches brunes et des festons dessus et dessous.
 Le mâle peut être confondu avec pie-grièche fiscale mais la pie-grièche a un gros bec crochu, une tache blanche sur l'épaule plutôt que sur la partie inférieure de l'aile inférieure et n'a pas de blanc sur la queue.
@@ -545,7 +559,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son chant est un pépiement faible, et son cri d'alarme est tssisk.
 </t>
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes souvent attrapés en vol.
 </t>
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il construit un nid en coupe fait de fines tiges et autres matières végétales et garni d'herbe placé dans un buisson dense.
 </t>
@@ -638,7 +658,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au Botswana, en Afrique du Sud, Lesotho, Mozambique et Swaziland. Il est vagabond en Namibie.
 </t>
@@ -669,7 +691,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans les savanes boisées tropicales, les savanes sèches, les broussailles et les jardins suburbains.
 </t>
@@ -700,11 +724,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Sigelus Cabanis, 1850, dans le genre Melaenornis.
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Sigelus Cabanis, 1850, dans le genre Melaenornis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gobemouche_fiscal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_fiscal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
 Melaenornis silens lawsoni Clancey, 1966 ;
 Melaenornis silens silens (Shaw, 1809).</t>
         </is>
